--- a/rcads/data/xls/05_EntityGroupMap.xlsx
+++ b/rcads/data/xls/05_EntityGroupMap.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_05_EntityGroupMap"/>
   </sheets>
   <definedNames>
-    <definedName name="_05_EntityGroupMap">'_05_EntityGroupMap'!$A$1:$C$87</definedName>
+    <definedName name="_05_EntityGroupMap">'_05_EntityGroupMap'!$A$1:$C$151</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1314,6 +1314,710 @@
         <v>128</v>
       </c>
     </row>
+    <row outlineLevel="0" r="88">
+      <c r="A88" s="0">
+        <v>97</v>
+      </c>
+      <c r="B88" s="0">
+        <v>86</v>
+      </c>
+      <c r="C88" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="89">
+      <c r="A89" s="0">
+        <v>98</v>
+      </c>
+      <c r="B89" s="0">
+        <v>87</v>
+      </c>
+      <c r="C89" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="90">
+      <c r="A90" s="0">
+        <v>99</v>
+      </c>
+      <c r="B90" s="0">
+        <v>88</v>
+      </c>
+      <c r="C90" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="91">
+      <c r="A91" s="0">
+        <v>100</v>
+      </c>
+      <c r="B91" s="0">
+        <v>88</v>
+      </c>
+      <c r="C91" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="92">
+      <c r="A92" s="0">
+        <v>101</v>
+      </c>
+      <c r="B92" s="0">
+        <v>89</v>
+      </c>
+      <c r="C92" s="0">
+        <v>130</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="93">
+      <c r="A93" s="0">
+        <v>102</v>
+      </c>
+      <c r="B93" s="0">
+        <v>90</v>
+      </c>
+      <c r="C93" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="94">
+      <c r="A94" s="0">
+        <v>103</v>
+      </c>
+      <c r="B94" s="0">
+        <v>92</v>
+      </c>
+      <c r="C94" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="95">
+      <c r="A95" s="0">
+        <v>104</v>
+      </c>
+      <c r="B95" s="0">
+        <v>91</v>
+      </c>
+      <c r="C95" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="96">
+      <c r="A96" s="0">
+        <v>105</v>
+      </c>
+      <c r="B96" s="0">
+        <v>94</v>
+      </c>
+      <c r="C96" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="97">
+      <c r="A97" s="0">
+        <v>106</v>
+      </c>
+      <c r="B97" s="0">
+        <v>93</v>
+      </c>
+      <c r="C97" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="98">
+      <c r="A98" s="0">
+        <v>107</v>
+      </c>
+      <c r="B98" s="0">
+        <v>95</v>
+      </c>
+      <c r="C98" s="0">
+        <v>133</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="99">
+      <c r="A99" s="0">
+        <v>108</v>
+      </c>
+      <c r="B99" s="0">
+        <v>96</v>
+      </c>
+      <c r="C99" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="100">
+      <c r="A100" s="0">
+        <v>109</v>
+      </c>
+      <c r="B100" s="0">
+        <v>97</v>
+      </c>
+      <c r="C100" s="0">
+        <v>133</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="101">
+      <c r="A101" s="0">
+        <v>110</v>
+      </c>
+      <c r="B101" s="0">
+        <v>98</v>
+      </c>
+      <c r="C101" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="102">
+      <c r="A102" s="0">
+        <v>111</v>
+      </c>
+      <c r="B102" s="0">
+        <v>99</v>
+      </c>
+      <c r="C102" s="0">
+        <v>135</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="103">
+      <c r="A103" s="0">
+        <v>112</v>
+      </c>
+      <c r="B103" s="0">
+        <v>100</v>
+      </c>
+      <c r="C103" s="0">
+        <v>136</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="104">
+      <c r="A104" s="0">
+        <v>113</v>
+      </c>
+      <c r="B104" s="0">
+        <v>97</v>
+      </c>
+      <c r="C104" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="105">
+      <c r="A105" s="0">
+        <v>114</v>
+      </c>
+      <c r="B105" s="0">
+        <v>98</v>
+      </c>
+      <c r="C105" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="106">
+      <c r="A106" s="0">
+        <v>115</v>
+      </c>
+      <c r="B106" s="0">
+        <v>101</v>
+      </c>
+      <c r="C106" s="0">
+        <v>137</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="107">
+      <c r="A107" s="0">
+        <v>116</v>
+      </c>
+      <c r="B107" s="0">
+        <v>102</v>
+      </c>
+      <c r="C107" s="0">
+        <v>138</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="108">
+      <c r="A108" s="0">
+        <v>117</v>
+      </c>
+      <c r="B108" s="0">
+        <v>103</v>
+      </c>
+      <c r="C108" s="0">
+        <v>137</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="109">
+      <c r="A109" s="0">
+        <v>118</v>
+      </c>
+      <c r="B109" s="0">
+        <v>104</v>
+      </c>
+      <c r="C109" s="0">
+        <v>138</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="110">
+      <c r="A110" s="0">
+        <v>119</v>
+      </c>
+      <c r="B110" s="0">
+        <v>105</v>
+      </c>
+      <c r="C110" s="0">
+        <v>139</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="111">
+      <c r="A111" s="0">
+        <v>120</v>
+      </c>
+      <c r="B111" s="0">
+        <v>106</v>
+      </c>
+      <c r="C111" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="112">
+      <c r="A112" s="0">
+        <v>121</v>
+      </c>
+      <c r="B112" s="0">
+        <v>103</v>
+      </c>
+      <c r="C112" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="113">
+      <c r="A113" s="0">
+        <v>122</v>
+      </c>
+      <c r="B113" s="0">
+        <v>104</v>
+      </c>
+      <c r="C113" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="114">
+      <c r="A114" s="0">
+        <v>123</v>
+      </c>
+      <c r="B114" s="0">
+        <v>107</v>
+      </c>
+      <c r="C114" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="115">
+      <c r="A115" s="0">
+        <v>124</v>
+      </c>
+      <c r="B115" s="0">
+        <v>108</v>
+      </c>
+      <c r="C115" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="116">
+      <c r="A116" s="0">
+        <v>125</v>
+      </c>
+      <c r="B116" s="0">
+        <v>109</v>
+      </c>
+      <c r="C116" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="117">
+      <c r="A117" s="0">
+        <v>126</v>
+      </c>
+      <c r="B117" s="0">
+        <v>110</v>
+      </c>
+      <c r="C117" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="118">
+      <c r="A118" s="0">
+        <v>127</v>
+      </c>
+      <c r="B118" s="0">
+        <v>109</v>
+      </c>
+      <c r="C118" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="119">
+      <c r="A119" s="0">
+        <v>128</v>
+      </c>
+      <c r="B119" s="0">
+        <v>110</v>
+      </c>
+      <c r="C119" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="120">
+      <c r="A120" s="0">
+        <v>129</v>
+      </c>
+      <c r="B120" s="0">
+        <v>111</v>
+      </c>
+      <c r="C120" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="121">
+      <c r="A121" s="0">
+        <v>130</v>
+      </c>
+      <c r="B121" s="0">
+        <v>112</v>
+      </c>
+      <c r="C121" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="122">
+      <c r="A122" s="0">
+        <v>131</v>
+      </c>
+      <c r="B122" s="0">
+        <v>113</v>
+      </c>
+      <c r="C122" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="123">
+      <c r="A123" s="0">
+        <v>132</v>
+      </c>
+      <c r="B123" s="0">
+        <v>114</v>
+      </c>
+      <c r="C123" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="124">
+      <c r="A124" s="0">
+        <v>133</v>
+      </c>
+      <c r="B124" s="0">
+        <v>113</v>
+      </c>
+      <c r="C124" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="125">
+      <c r="A125" s="0">
+        <v>134</v>
+      </c>
+      <c r="B125" s="0">
+        <v>114</v>
+      </c>
+      <c r="C125" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="126">
+      <c r="A126" s="0">
+        <v>135</v>
+      </c>
+      <c r="B126" s="0">
+        <v>115</v>
+      </c>
+      <c r="C126" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="127">
+      <c r="A127" s="0">
+        <v>136</v>
+      </c>
+      <c r="B127" s="0">
+        <v>116</v>
+      </c>
+      <c r="C127" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="128">
+      <c r="A128" s="0">
+        <v>137</v>
+      </c>
+      <c r="B128" s="0">
+        <v>117</v>
+      </c>
+      <c r="C128" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="129">
+      <c r="A129" s="0">
+        <v>138</v>
+      </c>
+      <c r="B129" s="0">
+        <v>118</v>
+      </c>
+      <c r="C129" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="130">
+      <c r="A130" s="0">
+        <v>139</v>
+      </c>
+      <c r="B130" s="0">
+        <v>117</v>
+      </c>
+      <c r="C130" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="131">
+      <c r="A131" s="0">
+        <v>140</v>
+      </c>
+      <c r="B131" s="0">
+        <v>118</v>
+      </c>
+      <c r="C131" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="132">
+      <c r="A132" s="0">
+        <v>141</v>
+      </c>
+      <c r="B132" s="0">
+        <v>119</v>
+      </c>
+      <c r="C132" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="133">
+      <c r="A133" s="0">
+        <v>142</v>
+      </c>
+      <c r="B133" s="0">
+        <v>120</v>
+      </c>
+      <c r="C133" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="134">
+      <c r="A134" s="0">
+        <v>143</v>
+      </c>
+      <c r="B134" s="0">
+        <v>121</v>
+      </c>
+      <c r="C134" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="135">
+      <c r="A135" s="0">
+        <v>144</v>
+      </c>
+      <c r="B135" s="0">
+        <v>122</v>
+      </c>
+      <c r="C135" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="136">
+      <c r="A136" s="0">
+        <v>145</v>
+      </c>
+      <c r="B136" s="0">
+        <v>121</v>
+      </c>
+      <c r="C136" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="137">
+      <c r="A137" s="0">
+        <v>146</v>
+      </c>
+      <c r="B137" s="0">
+        <v>122</v>
+      </c>
+      <c r="C137" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="138">
+      <c r="A138" s="0">
+        <v>147</v>
+      </c>
+      <c r="B138" s="0">
+        <v>123</v>
+      </c>
+      <c r="C138" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="139">
+      <c r="A139" s="0">
+        <v>148</v>
+      </c>
+      <c r="B139" s="0">
+        <v>124</v>
+      </c>
+      <c r="C139" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="140">
+      <c r="A140" s="0">
+        <v>149</v>
+      </c>
+      <c r="B140" s="0">
+        <v>125</v>
+      </c>
+      <c r="C140" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="141">
+      <c r="A141" s="0">
+        <v>150</v>
+      </c>
+      <c r="B141" s="0">
+        <v>126</v>
+      </c>
+      <c r="C141" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="142">
+      <c r="A142" s="0">
+        <v>151</v>
+      </c>
+      <c r="B142" s="0">
+        <v>125</v>
+      </c>
+      <c r="C142" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="143">
+      <c r="A143" s="0">
+        <v>152</v>
+      </c>
+      <c r="B143" s="0">
+        <v>126</v>
+      </c>
+      <c r="C143" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="144">
+      <c r="A144" s="0">
+        <v>153</v>
+      </c>
+      <c r="B144" s="0">
+        <v>127</v>
+      </c>
+      <c r="C144" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="145">
+      <c r="A145" s="0">
+        <v>154</v>
+      </c>
+      <c r="B145" s="0">
+        <v>128</v>
+      </c>
+      <c r="C145" s="0">
+        <v>84</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="146">
+      <c r="A146" s="0">
+        <v>155</v>
+      </c>
+      <c r="B146" s="0">
+        <v>129</v>
+      </c>
+      <c r="C146" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="147">
+      <c r="A147" s="0">
+        <v>156</v>
+      </c>
+      <c r="B147" s="0">
+        <v>130</v>
+      </c>
+      <c r="C147" s="0">
+        <v>82</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="148">
+      <c r="A148" s="0">
+        <v>157</v>
+      </c>
+      <c r="B148" s="0">
+        <v>129</v>
+      </c>
+      <c r="C148" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="149">
+      <c r="A149" s="0">
+        <v>158</v>
+      </c>
+      <c r="B149" s="0">
+        <v>130</v>
+      </c>
+      <c r="C149" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="150">
+      <c r="A150" s="0">
+        <v>159</v>
+      </c>
+      <c r="B150" s="0">
+        <v>131</v>
+      </c>
+      <c r="C150" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="151">
+      <c r="A151" s="0">
+        <v>160</v>
+      </c>
+      <c r="B151" s="0">
+        <v>132</v>
+      </c>
+      <c r="C151" s="0">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rcads/data/xls/05_EntityGroupMap.xlsx
+++ b/rcads/data/xls/05_EntityGroupMap.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_05_EntityGroupMap"/>
   </sheets>
   <definedNames>
-    <definedName name="_05_EntityGroupMap">'_05_EntityGroupMap'!$A$1:$C$151</definedName>
+    <definedName name="_05_EntityGroupMap">'_05_EntityGroupMap'!$A$1:$C$175</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:C175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -2018,6 +2018,258 @@
         <v>58</v>
       </c>
     </row>
+    <row outlineLevel="0" r="152">
+      <c r="A152" s="0">
+        <v>161</v>
+      </c>
+      <c r="B152" s="0">
+        <v>134</v>
+      </c>
+      <c r="C152" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="153">
+      <c r="A153" s="0">
+        <v>162</v>
+      </c>
+      <c r="B153" s="0">
+        <v>133</v>
+      </c>
+      <c r="C153" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="154">
+      <c r="A154" s="0">
+        <v>163</v>
+      </c>
+      <c r="B154" s="0">
+        <v>133</v>
+      </c>
+      <c r="C154" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="155">
+      <c r="A155" s="0">
+        <v>164</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="156">
+      <c r="A156" s="0">
+        <v>165</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="157">
+      <c r="A157" s="0">
+        <v>166</v>
+      </c>
+      <c r="B157" s="0">
+        <v>136</v>
+      </c>
+      <c r="C157" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="158">
+      <c r="A158" s="0">
+        <v>167</v>
+      </c>
+      <c r="B158" s="0">
+        <v>37</v>
+      </c>
+      <c r="C158" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="159">
+      <c r="A159" s="0">
+        <v>168</v>
+      </c>
+      <c r="B159" s="0">
+        <v>38</v>
+      </c>
+      <c r="C159" s="0">
+        <v>113</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="160">
+      <c r="A160" s="0">
+        <v>169</v>
+      </c>
+      <c r="B160" s="0">
+        <v>137</v>
+      </c>
+      <c r="C160" s="0">
+        <v>113</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="161">
+      <c r="A161" s="0">
+        <v>170</v>
+      </c>
+      <c r="B161" s="0">
+        <v>137</v>
+      </c>
+      <c r="C161" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="162">
+      <c r="A162" s="0">
+        <v>171</v>
+      </c>
+      <c r="B162" s="0">
+        <v>138</v>
+      </c>
+      <c r="C162" s="0">
+        <v>146</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="163">
+      <c r="A163" s="0">
+        <v>172</v>
+      </c>
+      <c r="B163" s="0">
+        <v>139</v>
+      </c>
+      <c r="C163" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="164">
+      <c r="A164" s="0">
+        <v>173</v>
+      </c>
+      <c r="B164" s="0">
+        <v>139</v>
+      </c>
+      <c r="C164" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="165">
+      <c r="A165" s="0">
+        <v>174</v>
+      </c>
+      <c r="B165" s="0">
+        <v>140</v>
+      </c>
+      <c r="C165" s="0">
+        <v>145</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="166">
+      <c r="A166" s="0">
+        <v>175</v>
+      </c>
+      <c r="B166" s="0">
+        <v>141</v>
+      </c>
+      <c r="C166" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="167">
+      <c r="A167" s="0">
+        <v>176</v>
+      </c>
+      <c r="B167" s="0">
+        <v>141</v>
+      </c>
+      <c r="C167" s="0">
+        <v>144</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="168">
+      <c r="A168" s="0">
+        <v>177</v>
+      </c>
+      <c r="B168" s="0">
+        <v>141</v>
+      </c>
+      <c r="C168" s="0">
+        <v>145</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="169">
+      <c r="A169" s="0">
+        <v>178</v>
+      </c>
+      <c r="B169" s="0">
+        <v>143</v>
+      </c>
+      <c r="C169" s="0">
+        <v>144</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="170">
+      <c r="A170" s="0">
+        <v>179</v>
+      </c>
+      <c r="B170" s="0">
+        <v>144</v>
+      </c>
+      <c r="C170" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="171">
+      <c r="A171" s="0">
+        <v>180</v>
+      </c>
+      <c r="B171" s="0">
+        <v>145</v>
+      </c>
+      <c r="C171" s="0">
+        <v>60</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="172">
+      <c r="A172" s="0">
+        <v>181</v>
+      </c>
+      <c r="B172" s="0">
+        <v>146</v>
+      </c>
+      <c r="C172" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="173">
+      <c r="A173" s="0">
+        <v>182</v>
+      </c>
+      <c r="B173" s="0">
+        <v>147</v>
+      </c>
+      <c r="C173" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="174">
+      <c r="A174" s="0">
+        <v>183</v>
+      </c>
+      <c r="B174" s="0">
+        <v>146</v>
+      </c>
+      <c r="C174" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="175">
+      <c r="A175" s="0">
+        <v>184</v>
+      </c>
+      <c r="B175" s="0">
+        <v>147</v>
+      </c>
+      <c r="C175" s="0">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rcads/data/xls/05_EntityGroupMap.xlsx
+++ b/rcads/data/xls/05_EntityGroupMap.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_05_EntityGroupMap"/>
   </sheets>
   <definedNames>
-    <definedName name="_05_EntityGroupMap">'_05_EntityGroupMap'!$A$1:$C$175</definedName>
+    <definedName name="_05_EntityGroupMap">'_05_EntityGroupMap'!$A$1:$C$181</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C175"/>
+  <dimension ref="A1:C181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -2055,11 +2055,23 @@
       <c r="A155" s="0">
         <v>164</v>
       </c>
+      <c r="B155" s="0">
+        <v>148</v>
+      </c>
+      <c r="C155" s="0">
+        <v>141</v>
+      </c>
     </row>
     <row outlineLevel="0" r="156">
       <c r="A156" s="0">
         <v>165</v>
       </c>
+      <c r="B156" s="0">
+        <v>149</v>
+      </c>
+      <c r="C156" s="0">
+        <v>142</v>
+      </c>
     </row>
     <row outlineLevel="0" r="157">
       <c r="A157" s="0">
@@ -2268,6 +2280,72 @@
       </c>
       <c r="C175" s="0">
         <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="176">
+      <c r="A176" s="0">
+        <v>185</v>
+      </c>
+      <c r="B176" s="0">
+        <v>150</v>
+      </c>
+      <c r="C176" s="0">
+        <v>109</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="177">
+      <c r="A177" s="0">
+        <v>186</v>
+      </c>
+      <c r="B177" s="0">
+        <v>150</v>
+      </c>
+      <c r="C177" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="178">
+      <c r="A178" s="0">
+        <v>187</v>
+      </c>
+      <c r="B178" s="0">
+        <v>151</v>
+      </c>
+      <c r="C178" s="0">
+        <v>110</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="179">
+      <c r="A179" s="0">
+        <v>188</v>
+      </c>
+      <c r="B179" s="0">
+        <v>151</v>
+      </c>
+      <c r="C179" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="180">
+      <c r="A180" s="0">
+        <v>189</v>
+      </c>
+      <c r="B180" s="0">
+        <v>152</v>
+      </c>
+      <c r="C180" s="0">
+        <v>147</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="181">
+      <c r="A181" s="0">
+        <v>190</v>
+      </c>
+      <c r="B181" s="0">
+        <v>153</v>
+      </c>
+      <c r="C181" s="0">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/rcads/data/xls/05_EntityGroupMap.xlsx
+++ b/rcads/data/xls/05_EntityGroupMap.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_05_EntityGroupMap"/>
   </sheets>
   <definedNames>
-    <definedName name="_05_EntityGroupMap">'_05_EntityGroupMap'!$A$1:$C$181</definedName>
+    <definedName name="_05_EntityGroupMap">'_05_EntityGroupMap'!$A$1:$C$192</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C181"/>
+  <dimension ref="A1:C192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -2348,6 +2348,127 @@
         <v>143</v>
       </c>
     </row>
+    <row outlineLevel="0" r="182">
+      <c r="A182" s="0">
+        <v>191</v>
+      </c>
+      <c r="B182" s="0">
+        <v>155</v>
+      </c>
+      <c r="C182" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="183">
+      <c r="A183" s="0">
+        <v>192</v>
+      </c>
+      <c r="B183" s="0">
+        <v>154</v>
+      </c>
+      <c r="C183" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="184">
+      <c r="A184" s="0">
+        <v>193</v>
+      </c>
+      <c r="B184" s="0">
+        <v>154</v>
+      </c>
+      <c r="C184" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="185">
+      <c r="A185" s="0">
+        <v>194</v>
+      </c>
+      <c r="B185" s="0">
+        <v>156</v>
+      </c>
+      <c r="C185" s="0">
+        <v>154</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="186">
+      <c r="A186" s="0">
+        <v>195</v>
+      </c>
+      <c r="B186" s="0">
+        <v>157</v>
+      </c>
+      <c r="C186" s="0">
+        <v>155</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="187">
+      <c r="A187" s="0">
+        <v>196</v>
+      </c>
+      <c r="B187" s="0">
+        <v>161</v>
+      </c>
+      <c r="C187" s="0">
+        <v>148</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="188">
+      <c r="A188" s="0">
+        <v>197</v>
+      </c>
+      <c r="B188" s="0">
+        <v>160</v>
+      </c>
+      <c r="C188" s="0">
+        <v>143</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="189">
+      <c r="A189" s="0">
+        <v>198</v>
+      </c>
+      <c r="B189" s="0">
+        <v>160</v>
+      </c>
+      <c r="C189" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="190">
+      <c r="A190" s="0">
+        <v>199</v>
+      </c>
+      <c r="B190" s="0">
+        <v>159</v>
+      </c>
+      <c r="C190" s="0">
+        <v>149</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="191">
+      <c r="A191" s="0">
+        <v>200</v>
+      </c>
+      <c r="B191" s="0">
+        <v>158</v>
+      </c>
+      <c r="C191" s="0">
+        <v>147</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="192">
+      <c r="A192" s="0">
+        <v>201</v>
+      </c>
+      <c r="B192" s="0">
+        <v>158</v>
+      </c>
+      <c r="C192" s="0">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rcads/data/xls/05_EntityGroupMap.xlsx
+++ b/rcads/data/xls/05_EntityGroupMap.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_05_EntityGroupMap"/>
   </sheets>
   <definedNames>
-    <definedName name="_05_EntityGroupMap">'_05_EntityGroupMap'!$A$1:$C$192</definedName>
+    <definedName name="_05_EntityGroupMap">'_05_EntityGroupMap'!$A$1:$C$193</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C192"/>
+  <dimension ref="A1:C193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -2469,6 +2469,17 @@
         <v>4</v>
       </c>
     </row>
+    <row outlineLevel="0" r="193">
+      <c r="A193" s="0">
+        <v>202</v>
+      </c>
+      <c r="B193" s="0">
+        <v>164</v>
+      </c>
+      <c r="C193" s="0">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
